--- a/shinyzoops/new_crosswalk.xlsx
+++ b/shinyzoops/new_crosswalk.xlsx
@@ -2935,11 +2935,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U141"/>
+  <dimension ref="A1:U140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3208,42 +3208,71 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="81">
+        <v>1972</v>
+      </c>
+      <c r="Q6" s="81">
+        <v>1972</v>
+      </c>
       <c r="S6" s="81">
         <v>1995</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="E7" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="40" t="s">
+      <c r="F7" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="43" t="s">
         <v>87</v>
       </c>
       <c r="H7" s="37" t="s">
@@ -3256,38 +3285,33 @@
         <v>110</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="81">
-        <v>1972</v>
-      </c>
-      <c r="Q7" s="81">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="S7" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="68" t="s">
-        <v>119</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D8" s="69"/>
       <c r="E8" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>87</v>
+      <c r="F8" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>93</v>
@@ -3298,33 +3322,33 @@
       <c r="J8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="M8" s="52" t="s">
-        <v>165</v>
-      </c>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
       <c r="S8" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="69"/>
+        <v>131</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>341</v>
+      </c>
       <c r="E9" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H9" s="37" t="s">
@@ -3339,31 +3363,31 @@
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
+      <c r="O9" s="81">
+        <v>1972</v>
+      </c>
+      <c r="Q9" s="81">
+        <v>1972</v>
+      </c>
       <c r="S9" s="81">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>341</v>
-      </c>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="69"/>
       <c r="E10" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>84</v>
+      <c r="F10" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>93</v>
@@ -3374,34 +3398,41 @@
       <c r="J10" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="O10" s="81">
-        <v>1972</v>
-      </c>
-      <c r="Q10" s="81">
-        <v>1972</v>
+      <c r="K10" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="37"/>
+      <c r="N10" s="81">
+        <v>1986</v>
       </c>
       <c r="S10" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
+    <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="69"/>
+        <v>152</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>86</v>
+      <c r="F11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>93</v>
@@ -3418,32 +3449,40 @@
       <c r="L11" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="81">
-        <v>1986</v>
+      <c r="M11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="80">
+        <v>1987</v>
+      </c>
+      <c r="O11" s="81">
+        <v>1988</v>
+      </c>
+      <c r="Q11" s="81">
+        <v>1988</v>
       </c>
       <c r="S11" s="81">
-        <v>1995</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="40" t="s">
         <v>87</v>
@@ -3464,10 +3503,10 @@
         <v>115</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N12" s="80">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="O12" s="81">
         <v>1988</v>
@@ -3479,24 +3518,17 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>11</v>
-      </c>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
       <c r="C13" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>12</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D13" s="69"/>
       <c r="E13" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>12</v>
+      <c r="F13" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>87</v>
@@ -3516,33 +3548,28 @@
       <c r="L13" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="80">
-        <v>1986</v>
-      </c>
-      <c r="O13" s="81">
-        <v>1988</v>
-      </c>
-      <c r="Q13" s="81">
-        <v>1988</v>
-      </c>
-      <c r="S13" s="81">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="C14" s="34" t="s">
+      <c r="M13" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="69"/>
+    </row>
+    <row r="14" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>118</v>
+      </c>
       <c r="E14" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="44" t="s">
-        <v>125</v>
+      <c r="F14" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>87</v>
@@ -3557,33 +3584,41 @@
         <v>110</v>
       </c>
       <c r="K14" s="45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="44" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="80">
+        <v>1978</v>
+      </c>
+      <c r="O14" s="81">
+        <v>1978</v>
+      </c>
+      <c r="Q14" s="81">
+        <v>1978</v>
+      </c>
+      <c r="S14" s="81">
+        <v>1995</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E15" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F15" s="39" t="s">
-        <v>14</v>
+      <c r="F15" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="G15" s="40" t="s">
         <v>87</v>
@@ -3597,42 +3632,28 @@
       <c r="J15" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="45" t="s">
-        <v>192</v>
+      <c r="K15" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="N15" s="80">
-        <v>1978</v>
-      </c>
-      <c r="O15" s="81">
-        <v>1978</v>
-      </c>
-      <c r="Q15" s="81">
-        <v>1978</v>
-      </c>
-      <c r="S15" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="M15" s="44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>132</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D16" s="69"/>
       <c r="E16" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G16" s="40" t="s">
         <v>87</v>
@@ -3653,24 +3674,37 @@
         <v>121</v>
       </c>
       <c r="M16" s="44" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="N16" s="80">
+        <v>1993</v>
+      </c>
+      <c r="S16" s="81">
+        <v>2006</v>
+      </c>
+      <c r="T16" s="81">
+        <v>2010</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>129</v>
+      <c r="F17" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H17" s="37" t="s">
         <v>93</v>
@@ -3687,38 +3721,41 @@
       <c r="L17" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="M17" s="44" t="s">
-        <v>129</v>
-      </c>
+      <c r="M17" s="46"/>
       <c r="N17" s="80">
         <v>1993</v>
       </c>
+      <c r="O17" s="81">
+        <v>1994</v>
+      </c>
+      <c r="Q17" s="81">
+        <v>1994</v>
+      </c>
       <c r="S17" s="81">
-        <v>2006</v>
-      </c>
-      <c r="T17" s="81">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="69"/>
+        <v>106</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="E18" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="37" t="s">
         <v>93</v>
@@ -3727,49 +3764,54 @@
         <v>102</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>193</v>
+        <v>105</v>
+      </c>
+      <c r="K18" s="47" t="s">
+        <v>194</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="80">
-        <v>1993</v>
+        <v>106</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="O18" s="81">
-        <v>1994</v>
+        <v>1972</v>
       </c>
       <c r="Q18" s="81">
-        <v>1994</v>
+        <v>1972</v>
       </c>
       <c r="S18" s="81">
         <v>1995</v>
       </c>
+      <c r="T18" s="81">
+        <v>2010</v>
+      </c>
+      <c r="U18">
+        <v>2014</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E19" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>87</v>
+      <c r="F19" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="H19" s="37" t="s">
         <v>93</v>
@@ -3780,52 +3822,42 @@
       <c r="J19" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="47" t="s">
-        <v>194</v>
+      <c r="K19" s="45" t="s">
+        <v>195</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>17</v>
+        <v>215</v>
+      </c>
+      <c r="M19" s="37"/>
+      <c r="N19" s="80">
+        <v>1979</v>
       </c>
       <c r="O19" s="81">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="Q19" s="81">
-        <v>1972</v>
-      </c>
-      <c r="S19" s="81">
-        <v>1995</v>
-      </c>
-      <c r="T19" s="81">
-        <v>2010</v>
-      </c>
-      <c r="U19">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="68" t="s">
-        <v>80</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D20" s="69"/>
       <c r="E20" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>93</v>
@@ -3842,33 +3874,38 @@
       <c r="L20" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="M20" s="37"/>
+      <c r="M20" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="N20" s="80">
         <v>1979</v>
       </c>
       <c r="O20" s="81">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="Q20" s="81">
-        <v>1979</v>
+        <v>2007</v>
+      </c>
+      <c r="S20" s="81">
+        <v>2006</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21" s="48" t="s">
         <v>87</v>
@@ -3889,10 +3926,10 @@
         <v>215</v>
       </c>
       <c r="M21" s="49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N21" s="80">
-        <v>1979</v>
+        <v>1993</v>
       </c>
       <c r="O21" s="81">
         <v>2007</v>
@@ -3905,21 +3942,21 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>21</v>
+      <c r="A22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G22" s="48" t="s">
         <v>87</v>
@@ -3933,44 +3970,44 @@
       <c r="J22" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="45" t="s">
-        <v>195</v>
+      <c r="K22" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="M22" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="80">
-        <v>1993</v>
+        <v>24</v>
+      </c>
+      <c r="N22" s="82">
+        <v>1963</v>
       </c>
       <c r="O22" s="81">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="Q22" s="81">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="S22" s="81">
-        <v>2006</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G23" s="48" t="s">
         <v>87</v>
@@ -3991,10 +4028,7 @@
         <v>107</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="82">
-        <v>1963</v>
+        <v>26</v>
       </c>
       <c r="O23" s="81">
         <v>1980</v>
@@ -4006,25 +4040,24 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>25</v>
+    <row r="24" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>70</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="69"/>
+        <v>81</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>81</v>
+      </c>
       <c r="E24" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>93</v>
@@ -4041,37 +4074,30 @@
       <c r="L24" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="49" t="s">
-        <v>26</v>
-      </c>
+      <c r="M24" s="42"/>
       <c r="O24" s="81">
-        <v>1980</v>
-      </c>
-      <c r="Q24" s="81">
-        <v>1980</v>
+        <v>2007</v>
       </c>
       <c r="S24" s="81">
         <v>1995</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="A25" s="17"/>
       <c r="C25" s="7" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="D25" s="68" t="s">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="E25" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F25" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>86</v>
+      <c r="F25" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>93</v>
@@ -4082,35 +4108,28 @@
       <c r="J25" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>107</v>
-      </c>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="42"/>
-      <c r="O25" s="81">
-        <v>2007</v>
-      </c>
-      <c r="S25" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="C26" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="68" t="s">
-        <v>342</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D26" s="69"/>
       <c r="E26" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="48" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="37" t="s">
@@ -4125,23 +4144,34 @@
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="42"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>27</v>
+      <c r="O26" s="81">
+        <v>1972</v>
+      </c>
+      <c r="Q26" s="81">
+        <v>1972</v>
+      </c>
+      <c r="S26" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="69"/>
+        <v>133</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>133</v>
+      </c>
       <c r="E27" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>105</v>
+        <v>210</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="G27" s="48" t="s">
         <v>84</v>
@@ -4153,7 +4183,7 @@
         <v>102</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
@@ -4170,22 +4200,19 @@
     </row>
     <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>133</v>
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="E28" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>134</v>
+        <v>209</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>110</v>
       </c>
       <c r="G28" s="48" t="s">
         <v>84</v>
@@ -4197,7 +4224,7 @@
         <v>102</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
@@ -4205,31 +4232,34 @@
       <c r="O28" s="81">
         <v>1972</v>
       </c>
-      <c r="Q28" s="81">
-        <v>1972</v>
+      <c r="P28" s="81">
+        <v>1988</v>
       </c>
       <c r="S28" s="81">
         <v>1995</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>219</v>
+      <c r="A29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="E29" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>84</v>
+      <c r="F29" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="H29" s="37" t="s">
         <v>93</v>
@@ -4240,40 +4270,41 @@
       <c r="J29" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="42"/>
+      <c r="K29" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>6</v>
+      </c>
       <c r="O29" s="81">
-        <v>1972</v>
-      </c>
-      <c r="P29" s="81">
-        <v>1988</v>
+        <v>1989</v>
+      </c>
+      <c r="Q29" s="83">
+        <v>1989</v>
       </c>
       <c r="S29" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>123</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D30" s="69"/>
       <c r="E30" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>87</v>
+      <c r="F30" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="H30" s="37" t="s">
         <v>93</v>
@@ -4284,41 +4315,37 @@
       <c r="J30" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K30" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="L30" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>6</v>
-      </c>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="42"/>
       <c r="O30" s="81">
         <v>1989</v>
       </c>
       <c r="Q30" s="83">
         <v>1989</v>
       </c>
-      <c r="S30" s="81">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="69"/>
+        <v>34</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>124</v>
+      </c>
       <c r="E31" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>84</v>
+      <c r="F31" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="H31" s="37" t="s">
         <v>93</v>
@@ -4329,34 +4356,44 @@
       <c r="J31" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="42"/>
+      <c r="K31" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="M31" s="37"/>
+      <c r="N31" s="81">
+        <v>1986</v>
+      </c>
       <c r="O31" s="81">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="Q31" s="83">
-        <v>1989</v>
+        <v>1990</v>
+      </c>
+      <c r="S31" s="81">
+        <v>1998</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>209</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>86</v>
@@ -4371,43 +4408,37 @@
         <v>110</v>
       </c>
       <c r="K32" s="45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M32" s="37"/>
       <c r="N32" s="81">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="O32" s="81">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="Q32" s="83">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="S32" s="81">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>35</v>
-      </c>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>149</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D33" s="69"/>
       <c r="E33" s="58" t="s">
         <v>209</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>86</v>
@@ -4421,41 +4452,38 @@
       <c r="J33" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="45" t="s">
-        <v>192</v>
+      <c r="K33" s="37" t="s">
+        <v>197</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="81">
-        <v>1978</v>
-      </c>
-      <c r="O33" s="81">
-        <v>1989</v>
-      </c>
-      <c r="Q33" s="83">
-        <v>1989</v>
+        <v>120</v>
+      </c>
+      <c r="M33" s="41"/>
+      <c r="N33" s="84">
+        <v>1993</v>
       </c>
       <c r="S33" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7" t="s">
+    <row r="34" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="69"/>
       <c r="E34" s="58" t="s">
         <v>209</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>93</v>
@@ -4472,32 +4500,38 @@
       <c r="L34" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="41"/>
-      <c r="N34" s="84">
+      <c r="M34" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="81">
         <v>1993</v>
       </c>
-      <c r="S34" s="81">
+      <c r="O34" s="81">
         <v>2006</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q34" s="81">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>127</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="69"/>
       <c r="E35" s="58" t="s">
         <v>209</v>
       </c>
       <c r="F35" s="39" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>93</v>
@@ -4512,39 +4546,33 @@
         <v>197</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="N35" s="81">
-        <v>1993</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M35" s="37"/>
       <c r="O35" s="81">
         <v>2006</v>
       </c>
       <c r="Q35" s="81">
         <v>2006</v>
       </c>
+      <c r="S35" s="81">
+        <v>2006</v>
+      </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>37</v>
-      </c>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F36" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="40" t="s">
+      <c r="F36" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="38" t="s">
         <v>86</v>
       </c>
       <c r="H36" s="37" t="s">
@@ -4557,37 +4585,34 @@
         <v>110</v>
       </c>
       <c r="K36" s="37" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="M36" s="37"/>
-      <c r="O36" s="81">
-        <v>2006</v>
-      </c>
-      <c r="Q36" s="81">
-        <v>2006</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M36" s="42"/>
       <c r="S36" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="69"/>
+    <row r="37" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>203</v>
+      </c>
       <c r="E37" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F37" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>86</v>
+      <c r="F37" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>93</v>
@@ -4598,35 +4623,39 @@
       <c r="J37" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K37" s="37" t="s">
+      <c r="K37" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="L37" s="37" t="s">
-        <v>113</v>
-      </c>
+      <c r="L37" s="60"/>
       <c r="M37" s="42"/>
-      <c r="S37" s="81">
+      <c r="O37" s="81">
+        <v>2006</v>
+      </c>
+      <c r="Q37" s="81">
         <v>2006</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="D38" s="68" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="E38" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F38" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>85</v>
+      <c r="F38" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>93</v>
@@ -4637,39 +4666,44 @@
       <c r="J38" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="K38" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="L38" s="60"/>
+      <c r="K38" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L38" s="37" t="s">
+        <v>121</v>
+      </c>
       <c r="M38" s="42"/>
+      <c r="N38" s="80">
+        <v>1993</v>
+      </c>
       <c r="O38" s="81">
         <v>2006</v>
       </c>
       <c r="Q38" s="81">
         <v>2006</v>
       </c>
+      <c r="S38" s="81">
+        <v>2006</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>39</v>
+      <c r="A39" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D39" s="68" t="s">
-        <v>128</v>
+        <v>343</v>
       </c>
       <c r="E39" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F39" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>86</v>
+      <c r="F39" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="H39" s="37" t="s">
         <v>93</v>
@@ -4677,47 +4711,41 @@
       <c r="I39" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J39" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="K39" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="L39" s="37" t="s">
-        <v>121</v>
-      </c>
+      <c r="J39" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
       <c r="M39" s="42"/>
-      <c r="N39" s="80">
-        <v>1993</v>
-      </c>
       <c r="O39" s="81">
-        <v>2006</v>
-      </c>
-      <c r="Q39" s="81">
-        <v>2006</v>
+        <v>1972</v>
+      </c>
+      <c r="P39" s="81">
+        <v>1994</v>
       </c>
       <c r="S39" s="81">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="68" t="s">
-        <v>343</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D40" s="69"/>
       <c r="E40" s="58" t="s">
         <v>209</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H40" s="37" t="s">
         <v>93</v>
@@ -4725,38 +4753,45 @@
       <c r="I40" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="42"/>
+      <c r="K40" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="L40" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="M40" s="37"/>
+      <c r="N40" s="80">
+        <v>1979</v>
+      </c>
       <c r="O40" s="81">
-        <v>1972</v>
-      </c>
-      <c r="P40" s="81">
-        <v>1994</v>
+        <v>1995</v>
+      </c>
+      <c r="Q40" s="81">
+        <v>1995</v>
       </c>
       <c r="S40" s="81">
-        <v>1995</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D41" s="69"/>
       <c r="E41" s="58" t="s">
         <v>209</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>86</v>
@@ -4770,16 +4805,13 @@
       <c r="J41" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="K41" s="50" t="s">
-        <v>195</v>
+      <c r="K41" s="46" t="s">
+        <v>199</v>
       </c>
       <c r="L41" s="37" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="M41" s="37"/>
-      <c r="N41" s="80">
-        <v>1979</v>
-      </c>
       <c r="O41" s="81">
         <v>1995</v>
       </c>
@@ -4792,23 +4824,20 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="D42" s="69"/>
       <c r="E42" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="F42" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>86</v>
+      <c r="F42" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="H42" s="37" t="s">
         <v>93</v>
@@ -4816,42 +4845,36 @@
       <c r="I42" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="37" t="s">
+      <c r="J42" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="K42" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="M42" s="37"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="80"/>
       <c r="O42" s="81">
         <v>1995</v>
       </c>
       <c r="Q42" s="81">
         <v>1995</v>
       </c>
-      <c r="S42" s="81">
-        <v>2006</v>
-      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>42</v>
+      <c r="A43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G43" s="48" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="H43" s="37" t="s">
         <v>93</v>
@@ -4859,36 +4882,36 @@
       <c r="I43" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="49" t="s">
-        <v>105</v>
-      </c>
+      <c r="J43" s="60"/>
       <c r="K43" s="60"/>
       <c r="L43" s="60"/>
       <c r="M43" s="42"/>
-      <c r="N43" s="80"/>
       <c r="O43" s="81">
+        <v>1972</v>
+      </c>
+      <c r="P43" s="81">
+        <v>1988</v>
+      </c>
+      <c r="S43" s="81">
         <v>1995</v>
       </c>
-      <c r="Q43" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>75</v>
-      </c>
+    </row>
+    <row r="44" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
       <c r="C44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="69"/>
+        <v>146</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>146</v>
+      </c>
       <c r="E44" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>188</v>
+      <c r="F44" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="H44" s="37" t="s">
         <v>93</v>
@@ -4896,36 +4919,36 @@
       <c r="I44" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J44" s="60"/>
-      <c r="K44" s="60"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="42"/>
-      <c r="O44" s="81">
-        <v>1972</v>
-      </c>
-      <c r="P44" s="81">
-        <v>1988</v>
-      </c>
+      <c r="J44" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="L44" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="37"/>
       <c r="S44" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="C45" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>146</v>
-      </c>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="69"/>
       <c r="E45" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>86</v>
+      <c r="F45" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="H45" s="37" t="s">
         <v>93</v>
@@ -4942,27 +4965,34 @@
       <c r="L45" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="M45" s="37"/>
-      <c r="S45" s="81">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M45" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="81">
+        <v>1989</v>
+      </c>
+      <c r="Q45" s="83">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>344</v>
+      </c>
       <c r="E46" s="58" t="s">
         <v>211</v>
       </c>
       <c r="F46" s="49" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="H46" s="37" t="s">
         <v>93</v>
@@ -4970,18 +5000,10 @@
       <c r="I46" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J46" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="K46" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="L46" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="M46" s="49" t="s">
-        <v>6</v>
-      </c>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="42"/>
       <c r="O46" s="81">
         <v>1989</v>
       </c>
@@ -4991,22 +5013,25 @@
     </row>
     <row r="47" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="D47" s="68" t="s">
-        <v>344</v>
+        <v>148</v>
       </c>
       <c r="E47" s="58" t="s">
         <v>211</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="H47" s="37" t="s">
         <v>93</v>
@@ -5014,37 +5039,43 @@
       <c r="I47" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="42"/>
+      <c r="J47" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="K47" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L47" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="M47" s="37"/>
+      <c r="N47" s="81">
+        <v>1986</v>
+      </c>
       <c r="O47" s="81">
-        <v>1989</v>
+        <v>2000</v>
       </c>
       <c r="Q47" s="83">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>47</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="S47" s="81">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>148</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D48" s="69"/>
       <c r="E48" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F48" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="48" t="s">
+      <c r="F48" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="38" t="s">
         <v>86</v>
       </c>
       <c r="H48" s="37" t="s">
@@ -5057,40 +5088,37 @@
         <v>110</v>
       </c>
       <c r="K48" s="45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M48" s="37"/>
       <c r="N48" s="81">
-        <v>1986</v>
-      </c>
-      <c r="O48" s="81">
-        <v>2000</v>
-      </c>
-      <c r="Q48" s="83">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="S48" s="81">
         <v>2006</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="7" t="s">
+    <row r="49" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="69"/>
       <c r="E49" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F49" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>86</v>
+      <c r="F49" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="H49" s="37" t="s">
         <v>93</v>
@@ -5107,100 +5135,109 @@
       <c r="L49" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="M49" s="37"/>
+      <c r="M49" s="49" t="s">
+        <v>14</v>
+      </c>
       <c r="N49" s="81">
         <v>1978</v>
       </c>
-      <c r="S49" s="81">
-        <v>2006</v>
+      <c r="O49" s="81">
+        <v>1989</v>
+      </c>
+      <c r="Q49" s="83">
+        <v>1989</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D50" s="68" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E50" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="G50" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J50" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="K50" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="L50" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="M50" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="N50" s="81">
-        <v>1978</v>
+      <c r="H50" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="J50" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="K50" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="O50" s="81">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="Q50" s="83">
-        <v>1989</v>
+        <v>1972</v>
+      </c>
+      <c r="S50" s="81">
+        <v>1995</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D51" s="68" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E51" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I51" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="46" t="s">
+      <c r="J51" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="K51" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="L51" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="M51" s="39" t="s">
-        <v>50</v>
+      <c r="K51" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="L51" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M51" s="42"/>
+      <c r="N51" s="81">
+        <v>1972</v>
       </c>
       <c r="O51" s="81">
         <v>1972</v>
@@ -5214,22 +5251,22 @@
     </row>
     <row r="52" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D52" s="68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E52" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F52" s="39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G52" s="40" t="s">
         <v>86</v>
@@ -5244,15 +5281,12 @@
         <v>137</v>
       </c>
       <c r="K52" s="37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L52" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M52" s="42"/>
-      <c r="N52" s="81">
-        <v>1972</v>
-      </c>
       <c r="O52" s="81">
         <v>1972</v>
       </c>
@@ -5264,25 +5298,21 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D53" s="68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E53" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G53" s="40" t="s">
+      <c r="F53" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="38" t="s">
         <v>86</v>
       </c>
       <c r="H53" s="37" t="s">
@@ -5295,18 +5325,12 @@
         <v>137</v>
       </c>
       <c r="K53" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L53" s="37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M53" s="42"/>
-      <c r="O53" s="81">
-        <v>1972</v>
-      </c>
-      <c r="Q53" s="83">
-        <v>1972</v>
-      </c>
       <c r="S53" s="81">
         <v>1995</v>
       </c>
@@ -5315,56 +5339,54 @@
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D54" s="68" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E54" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G54" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I54" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="J54" s="37" t="s">
+      <c r="J54" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="K54" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="L54" s="37" t="s">
-        <v>140</v>
-      </c>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
       <c r="M54" s="42"/>
       <c r="S54" s="81">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C55" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>137</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D55" s="69"/>
       <c r="E55" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F55" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="40" t="s">
         <v>84</v>
       </c>
       <c r="H55" s="41" t="s">
@@ -5379,41 +5401,53 @@
       <c r="K55" s="60"/>
       <c r="L55" s="60"/>
       <c r="M55" s="42"/>
+      <c r="O55" s="81">
+        <v>1972</v>
+      </c>
+      <c r="Q55" s="81">
+        <v>1972</v>
+      </c>
       <c r="S55" s="81">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="69"/>
+        <v>153</v>
+      </c>
+      <c r="D56" s="68" t="s">
+        <v>153</v>
+      </c>
       <c r="E56" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F56" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="J56" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
+      <c r="F56" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J56" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="K56" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="L56" s="37" t="s">
+        <v>153</v>
+      </c>
       <c r="M56" s="42"/>
       <c r="O56" s="81">
         <v>1972</v>
@@ -5421,28 +5455,25 @@
       <c r="Q56" s="81">
         <v>1972</v>
       </c>
-      <c r="S56" s="81">
-        <v>1995</v>
-      </c>
     </row>
     <row r="57" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D57" s="68" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E57" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G57" s="48" t="s">
         <v>86</v>
@@ -5457,10 +5488,10 @@
         <v>99</v>
       </c>
       <c r="K57" s="37" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L57" s="37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M57" s="42"/>
       <c r="O57" s="81">
@@ -5470,65 +5501,51 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>56</v>
-      </c>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="68" t="s">
-        <v>157</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D58" s="69"/>
       <c r="E58" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F58" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" s="48" t="s">
-        <v>86</v>
+      <c r="F58" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="H58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="K58" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="L58" s="37" t="s">
-        <v>157</v>
-      </c>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
       <c r="M58" s="42"/>
-      <c r="O58" s="81">
-        <v>1972</v>
-      </c>
-      <c r="Q58" s="81">
-        <v>1972</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
+    </row>
+    <row r="59" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="C59" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="69"/>
+        <v>90</v>
+      </c>
+      <c r="D59" s="68" t="s">
+        <v>345</v>
+      </c>
       <c r="E59" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F59" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="48" t="s">
         <v>82</v>
       </c>
       <c r="H59" s="37" t="s">
@@ -5539,36 +5556,53 @@
       <c r="K59" s="60"/>
       <c r="L59" s="60"/>
       <c r="M59" s="42"/>
+      <c r="O59" s="80">
+        <v>1972</v>
+      </c>
+      <c r="Q59" s="80">
+        <v>1972</v>
+      </c>
+      <c r="S59" s="81">
+        <v>1995</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="D60" s="68" t="s">
-        <v>345</v>
+        <v>159</v>
       </c>
       <c r="E60" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F60" s="44" t="s">
-        <v>91</v>
+      <c r="F60" s="49" t="s">
+        <v>159</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H60" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
+      <c r="I60" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="K60" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="L60" s="37" t="s">
+        <v>159</v>
+      </c>
       <c r="M60" s="42"/>
       <c r="O60" s="80">
         <v>1972</v>
@@ -5576,28 +5610,25 @@
       <c r="Q60" s="80">
         <v>1972</v>
       </c>
-      <c r="S60" s="81">
-        <v>1995</v>
-      </c>
     </row>
     <row r="61" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D61" s="68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E61" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F61" s="49" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="G61" s="48" t="s">
         <v>86</v>
@@ -5615,7 +5646,7 @@
         <v>155</v>
       </c>
       <c r="L61" s="37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M61" s="42"/>
       <c r="O61" s="80">
@@ -5625,27 +5656,22 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>156</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D62" s="69"/>
       <c r="E62" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="G62" s="48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" s="37" t="s">
         <v>91</v>
@@ -5662,30 +5688,33 @@
       <c r="L62" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="M62" s="42"/>
+      <c r="M62" s="49" t="s">
+        <v>78</v>
+      </c>
       <c r="O62" s="80">
         <v>1972</v>
       </c>
-      <c r="Q62" s="80">
-        <v>1972</v>
-      </c>
+      <c r="Q62" s="80"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D63" s="69"/>
       <c r="E63" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F63" s="49" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="G63" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H63" s="37" t="s">
         <v>91</v>
@@ -5697,54 +5726,50 @@
         <v>99</v>
       </c>
       <c r="K63" s="37" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L63" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="M63" s="49" t="s">
-        <v>78</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M63" s="42"/>
       <c r="O63" s="80">
         <v>1972</v>
       </c>
-      <c r="Q63" s="80"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>61</v>
+      <c r="Q63" s="80">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="69"/>
+        <v>100</v>
+      </c>
+      <c r="D64" s="68" t="s">
+        <v>346</v>
+      </c>
       <c r="E64" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="F64" s="49" t="s">
-        <v>160</v>
+        <v>211</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>217</v>
       </c>
       <c r="G64" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="H64" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I64" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="J64" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="K64" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="L64" s="37" t="s">
-        <v>160</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="I64" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
       <c r="M64" s="42"/>
       <c r="O64" s="80">
         <v>1972</v>
@@ -5752,216 +5777,216 @@
       <c r="Q64" s="80">
         <v>1972</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S64" s="81">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="68" t="s">
-        <v>346</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="D65" s="69"/>
       <c r="E65" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="F65" s="46" t="s">
-        <v>217</v>
+      <c r="F65" s="37" t="s">
+        <v>145</v>
       </c>
       <c r="G65" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="I65" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="J65" s="60"/>
+        <v>190</v>
+      </c>
+      <c r="H65" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I65" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="K65" s="60"/>
       <c r="L65" s="60"/>
       <c r="M65" s="42"/>
       <c r="O65" s="80">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="Q65" s="80">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="S65" s="81">
         <v>1995</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>64</v>
+    <row r="66" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="61" t="s">
+        <v>214</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D66" s="69"/>
+        <v>67</v>
+      </c>
+      <c r="D66" s="68" t="s">
+        <v>67</v>
+      </c>
       <c r="E66" s="58" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F66" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G66" s="48" t="s">
-        <v>190</v>
+        <v>213</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>83</v>
       </c>
       <c r="H66" s="37" t="s">
         <v>93</v>
       </c>
       <c r="I66" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J66" s="37" t="s">
-        <v>145</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="J66" s="60"/>
       <c r="K66" s="60"/>
       <c r="L66" s="60"/>
       <c r="M66" s="42"/>
-      <c r="O66" s="80">
-        <v>1976</v>
-      </c>
       <c r="Q66" s="80">
-        <v>1976</v>
+        <v>2002</v>
       </c>
       <c r="S66" s="81">
         <v>1995</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="61" t="s">
-        <v>214</v>
+      <c r="B67" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D67" s="68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E67" s="58" t="s">
         <v>208</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="G67" s="43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H67" s="37" t="s">
         <v>93</v>
       </c>
       <c r="I67" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="J67" s="60"/>
+        <v>103</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>143</v>
+      </c>
       <c r="K67" s="60"/>
       <c r="L67" s="60"/>
       <c r="M67" s="42"/>
       <c r="Q67" s="80">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="S67" s="81">
         <v>1995</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="68" t="s">
-        <v>69</v>
-      </c>
+      <c r="T67" s="81">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" s="70"/>
       <c r="E68" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G68" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="H68" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="I68" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="K68" s="60"/>
+      <c r="F68" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
       <c r="L68" s="60"/>
       <c r="M68" s="42"/>
-      <c r="Q68" s="80">
-        <v>2001</v>
-      </c>
       <c r="S68" s="81">
         <v>1995</v>
       </c>
       <c r="T68" s="81">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="70"/>
+        <v>92</v>
+      </c>
+      <c r="D69" s="71" t="s">
+        <v>347</v>
+      </c>
       <c r="E69" s="58" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F69" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G69" s="53" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="G69" s="56" t="s">
+        <v>85</v>
       </c>
       <c r="H69" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
+        <v>93</v>
+      </c>
+      <c r="I69" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="J69" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="K69" s="54" t="s">
+        <v>95</v>
+      </c>
       <c r="L69" s="60"/>
       <c r="M69" s="42"/>
       <c r="S69" s="81">
         <v>1995</v>
       </c>
       <c r="T69" s="81">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D70" s="71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E70" s="58" t="s">
         <v>211</v>
       </c>
       <c r="F70" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G70" s="56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H70" s="54" t="s">
         <v>93</v>
@@ -5969,69 +5994,66 @@
       <c r="I70" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="J70" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="K70" s="54" t="s">
-        <v>95</v>
-      </c>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55"/>
       <c r="L70" s="60"/>
       <c r="M70" s="42"/>
       <c r="S70" s="81">
         <v>1995</v>
       </c>
       <c r="T70" s="81">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="E71" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="54" t="s">
-        <v>94</v>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C71" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="69"/>
+      <c r="E71" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" s="57" t="s">
+        <v>220</v>
       </c>
       <c r="G71" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H71" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="I71" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="42"/>
-      <c r="S71" s="81">
-        <v>1995</v>
-      </c>
-      <c r="T71" s="81">
-        <v>1999</v>
+        <v>87</v>
+      </c>
+      <c r="H71" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I71" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="J71" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="K71" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="L71" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="M71" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="N71" s="81">
+        <v>1992</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="21" t="s">
-        <v>221</v>
+      <c r="C72" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="D72" s="69"/>
       <c r="E72" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="G72" s="56" t="s">
-        <v>87</v>
+      <c r="F72" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G72" s="65" t="s">
+        <v>86</v>
       </c>
       <c r="H72" s="62" t="s">
         <v>93</v>
@@ -6039,93 +6061,85 @@
       <c r="I72" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="J72" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="K72" s="55" t="s">
-        <v>223</v>
+      <c r="J72" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="K72" s="64" t="s">
+        <v>227</v>
       </c>
       <c r="L72" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="M72" s="57" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N72" s="81">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G73" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="H73" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I73" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="J73" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="K73" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="L73" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="N73" s="81">
         <v>1986</v>
       </c>
+    </row>
+    <row r="73" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="E73" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="F73" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="I73" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
     </row>
     <row r="74" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="71" t="s">
-        <v>349</v>
+        <v>229</v>
       </c>
       <c r="E74" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F74" s="71" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="G74" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="H74" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" s="74" t="s">
         <v>93</v>
       </c>
       <c r="I74" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
+      <c r="J74" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="K74" s="74" t="s">
+        <v>229</v>
+      </c>
       <c r="L74" s="74"/>
       <c r="M74" s="74"/>
     </row>
     <row r="75" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D75" s="71" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E75" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F75" s="71" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G75" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="H75" s="74" t="s">
+      <c r="H75" s="73" t="s">
         <v>93</v>
       </c>
       <c r="I75" s="74" t="s">
@@ -6135,100 +6149,98 @@
         <v>230</v>
       </c>
       <c r="K75" s="74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L75" s="74"/>
       <c r="M75" s="74"/>
     </row>
     <row r="76" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E76" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F76" s="71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H76" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" s="74" t="s">
         <v>93</v>
       </c>
       <c r="I76" s="74" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J76" s="74" t="s">
-        <v>230</v>
-      </c>
-      <c r="K76" s="74" t="s">
-        <v>231</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="K76" s="74"/>
       <c r="L76" s="74"/>
       <c r="M76" s="74"/>
     </row>
     <row r="77" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="71" t="s">
-        <v>232</v>
+      <c r="D77" s="68" t="s">
+        <v>234</v>
       </c>
       <c r="E77" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="F77" s="71" t="s">
-        <v>233</v>
+      <c r="F77" t="s">
+        <v>235</v>
       </c>
       <c r="G77" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="H77" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="I77" s="74" t="s">
+      <c r="H77" t="s">
+        <v>93</v>
+      </c>
+      <c r="I77" t="s">
         <v>103</v>
       </c>
-      <c r="J77" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="K77" s="74"/>
-      <c r="L77" s="74"/>
-      <c r="M77" s="74"/>
+      <c r="J77" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="78" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E78" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F78" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s">
         <v>93</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J78" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="K78" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D79" s="68" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E79" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H79" t="s">
         <v>93</v>
@@ -6237,24 +6249,21 @@
         <v>94</v>
       </c>
       <c r="J79" t="s">
-        <v>237</v>
-      </c>
-      <c r="K79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="E80" s="72" t="s">
-        <v>208</v>
+        <v>350</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>211</v>
       </c>
       <c r="F80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H80" t="s">
         <v>93</v>
@@ -6263,105 +6272,108 @@
         <v>94</v>
       </c>
       <c r="J80" t="s">
-        <v>240</v>
+        <v>200</v>
+      </c>
+      <c r="K80" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D81" s="68" t="s">
-        <v>350</v>
-      </c>
-      <c r="E81" s="75" t="s">
-        <v>211</v>
+        <v>242</v>
+      </c>
+      <c r="E81" s="72" t="s">
+        <v>208</v>
       </c>
       <c r="F81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="J81" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="K81" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="L81" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="68" t="s">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="E82" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="F82" t="s">
-        <v>242</v>
+      <c r="F82" s="68" t="s">
+        <v>244</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="I82" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J82" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="K82" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="L82" t="s">
-        <v>242</v>
+        <v>249</v>
+      </c>
+      <c r="M82" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D83" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="E83" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>244</v>
+        <v>351</v>
+      </c>
+      <c r="E83" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" t="s">
+        <v>227</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="I83" t="s">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="J83" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="K83" t="s">
-        <v>248</v>
-      </c>
-      <c r="L83" t="s">
-        <v>249</v>
-      </c>
-      <c r="M83" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="68" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E84" s="76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G84" s="27" t="s">
         <v>85</v>
@@ -6370,145 +6382,142 @@
         <v>93</v>
       </c>
       <c r="I84" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J84" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="K84" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="68" t="s">
-        <v>352</v>
-      </c>
-      <c r="E85" s="76" t="s">
-        <v>211</v>
+        <v>253</v>
+      </c>
+      <c r="E85" s="72" t="s">
+        <v>208</v>
       </c>
       <c r="F85" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s">
         <v>93</v>
       </c>
       <c r="I85" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="J85" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="K85" t="s">
-        <v>252</v>
+        <v>201</v>
+      </c>
+      <c r="L85" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E86" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G86" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H86" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I86" t="s">
-        <v>136</v>
-      </c>
-      <c r="J86" t="s">
-        <v>137</v>
-      </c>
-      <c r="K86" t="s">
-        <v>201</v>
-      </c>
-      <c r="L86" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D87" s="68" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E87" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="F87" t="s">
-        <v>255</v>
+      <c r="F87" s="68" t="s">
+        <v>256</v>
       </c>
       <c r="G87" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I87" t="s">
-        <v>255</v>
+        <v>136</v>
+      </c>
+      <c r="J87" t="s">
+        <v>137</v>
+      </c>
+      <c r="K87" t="s">
+        <v>202</v>
+      </c>
+      <c r="L87" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D88" s="68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E88" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="F88" s="68" t="s">
-        <v>256</v>
+      <c r="F88" t="s">
+        <v>258</v>
       </c>
       <c r="G88" s="27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>93</v>
-      </c>
-      <c r="I88" t="s">
-        <v>136</v>
-      </c>
-      <c r="J88" t="s">
-        <v>137</v>
-      </c>
-      <c r="K88" t="s">
-        <v>202</v>
-      </c>
-      <c r="L88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="68" t="s">
-        <v>257</v>
+        <v>353</v>
       </c>
       <c r="E89" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F89" t="s">
-        <v>258</v>
+        <v>200</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H89" t="s">
-        <v>258</v>
+        <v>93</v>
+      </c>
+      <c r="I89" t="s">
+        <v>94</v>
+      </c>
+      <c r="J89" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E90" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F90" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="G90" s="27" t="s">
         <v>84</v>
@@ -6520,18 +6529,18 @@
         <v>94</v>
       </c>
       <c r="J90" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="68" t="s">
-        <v>354</v>
-      </c>
-      <c r="E91" s="72" t="s">
-        <v>208</v>
+        <v>355</v>
+      </c>
+      <c r="E91" s="75" t="s">
+        <v>211</v>
       </c>
       <c r="F91" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G91" s="27" t="s">
         <v>84</v>
@@ -6543,73 +6552,79 @@
         <v>94</v>
       </c>
       <c r="J91" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="68" t="s">
-        <v>355</v>
-      </c>
-      <c r="E92" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="F92" t="s">
-        <v>251</v>
+        <v>259</v>
+      </c>
+      <c r="E92" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="68" t="s">
+        <v>337</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s">
         <v>93</v>
       </c>
       <c r="I92" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J92" t="s">
-        <v>251</v>
+        <v>233</v>
+      </c>
+      <c r="K92" t="s">
+        <v>260</v>
+      </c>
+      <c r="L92" t="s">
+        <v>259</v>
+      </c>
+      <c r="M92" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="68" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E93" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s">
         <v>93</v>
       </c>
       <c r="I93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J93" t="s">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="K93" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="L93" t="s">
-        <v>259</v>
-      </c>
-      <c r="M93" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="68" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E94" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F94" s="68" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G94" s="27" t="s">
         <v>86</v>
@@ -6618,169 +6633,166 @@
         <v>93</v>
       </c>
       <c r="I94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J94" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="K94" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="L94" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="68" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E95" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F95" s="68" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G95" s="27" t="s">
         <v>86</v>
       </c>
       <c r="H95" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="I95" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="J95" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="K95" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L95" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D96" s="68" t="s">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="E96" s="72" t="s">
         <v>208</v>
       </c>
       <c r="F96" s="68" t="s">
-        <v>265</v>
+        <v>356</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H96" t="s">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="I96" t="s">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="J96" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K96" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L96" t="s">
-        <v>265</v>
+        <v>272</v>
+      </c>
+      <c r="M96" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="68" t="s">
-        <v>356</v>
-      </c>
-      <c r="E97" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="F97" s="68" t="s">
-        <v>356</v>
+        <v>357</v>
+      </c>
+      <c r="E97" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="F97" t="s">
+        <v>275</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s">
         <v>93</v>
       </c>
       <c r="I97" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J97" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K97" t="s">
-        <v>271</v>
-      </c>
-      <c r="L97" t="s">
-        <v>272</v>
-      </c>
-      <c r="M97" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="68" t="s">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="E98" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="F98" t="s">
-        <v>275</v>
+        <v>208</v>
+      </c>
+      <c r="F98" s="68" t="s">
+        <v>276</v>
       </c>
       <c r="G98" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I98" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="J98" t="s">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="K98" t="s">
-        <v>275</v>
+        <v>158</v>
+      </c>
+      <c r="L98" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="68" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="E99" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F99" s="68" t="s">
-        <v>276</v>
+        <v>211</v>
+      </c>
+      <c r="F99" t="s">
+        <v>277</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I99" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="K99" t="s">
-        <v>158</v>
-      </c>
-      <c r="L99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E100" s="75" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F100" t="s">
         <v>277</v>
@@ -6803,13 +6815,13 @@
     </row>
     <row r="101" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="68" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E101" s="75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F101" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G101" s="27" t="s">
         <v>85</v>
@@ -6818,27 +6830,27 @@
         <v>93</v>
       </c>
       <c r="I101" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J101" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K101" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="68" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E102" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="F102" t="s">
-        <v>278</v>
+        <v>208</v>
+      </c>
+      <c r="F102" s="68" t="s">
+        <v>361</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H102" t="s">
         <v>93</v>
@@ -6847,125 +6859,122 @@
         <v>103</v>
       </c>
       <c r="J102" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="K102" t="s">
-        <v>278</v>
+        <v>223</v>
+      </c>
+      <c r="L102" t="s">
+        <v>272</v>
+      </c>
+      <c r="M102" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E103" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F103" s="68" t="s">
-        <v>361</v>
+        <v>211</v>
+      </c>
+      <c r="F103" t="s">
+        <v>280</v>
       </c>
       <c r="G103" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H103" t="s">
         <v>93</v>
       </c>
       <c r="I103" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J103" t="s">
-        <v>270</v>
-      </c>
-      <c r="K103" t="s">
-        <v>223</v>
-      </c>
-      <c r="L103" t="s">
-        <v>272</v>
-      </c>
-      <c r="M103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="68" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="E104" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="F104" t="s">
-        <v>280</v>
+        <v>208</v>
+      </c>
+      <c r="F104" s="68" t="s">
+        <v>281</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s">
         <v>93</v>
       </c>
       <c r="I104" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J104" t="s">
-        <v>280</v>
+        <v>226</v>
+      </c>
+      <c r="K104" t="s">
+        <v>282</v>
+      </c>
+      <c r="L104" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="68" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E105" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F105" s="68" t="s">
-        <v>281</v>
+      <c r="F105" t="s">
+        <v>284</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H105" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s">
-        <v>103</v>
-      </c>
-      <c r="J105" t="s">
-        <v>226</v>
-      </c>
-      <c r="K105" t="s">
-        <v>282</v>
-      </c>
-      <c r="L105" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="68" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="E106" s="75" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F106" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G106" s="27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H106" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I106" t="s">
-        <v>284</v>
+        <v>94</v>
+      </c>
+      <c r="J106" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="68" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E107" s="75" t="s">
         <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="G107" s="27" t="s">
         <v>84</v>
@@ -6977,214 +6986,214 @@
         <v>94</v>
       </c>
       <c r="J107" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="68" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="E108" s="75" t="s">
-        <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>200</v>
+        <v>208</v>
+      </c>
+      <c r="F108" s="68" t="s">
+        <v>338</v>
       </c>
       <c r="G108" s="27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H108" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="I108" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="J108" t="s">
-        <v>200</v>
+        <v>289</v>
+      </c>
+      <c r="K108" t="s">
+        <v>290</v>
+      </c>
+      <c r="L108" t="s">
+        <v>291</v>
+      </c>
+      <c r="M108" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D109" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="E109" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="F109" s="68" t="s">
-        <v>338</v>
+        <v>293</v>
+      </c>
+      <c r="E109" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="F109" t="s">
+        <v>293</v>
       </c>
       <c r="G109" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="I109" t="s">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="J109" t="s">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="K109" t="s">
-        <v>290</v>
-      </c>
-      <c r="L109" t="s">
-        <v>291</v>
-      </c>
-      <c r="M109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D110" s="68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E110" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F110" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G110" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H110" t="s">
         <v>93</v>
       </c>
       <c r="I110" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="J110" t="s">
-        <v>137</v>
-      </c>
-      <c r="K110" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D111" s="68" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E111" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G111" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H111" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="I111" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="J111" t="s">
-        <v>296</v>
+        <v>271</v>
+      </c>
+      <c r="K111" t="s">
+        <v>298</v>
+      </c>
+      <c r="L111" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="68" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E112" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F112" t="s">
-        <v>297</v>
+      <c r="F112" s="68" t="s">
+        <v>299</v>
       </c>
       <c r="G112" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H112" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="I112" t="s">
-        <v>246</v>
-      </c>
-      <c r="J112" t="s">
-        <v>271</v>
-      </c>
-      <c r="K112" t="s">
-        <v>298</v>
-      </c>
-      <c r="L112" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="68" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="E113" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F113" s="68" t="s">
-        <v>299</v>
+      <c r="F113" t="s">
+        <v>278</v>
       </c>
       <c r="G113" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s">
         <v>93</v>
       </c>
       <c r="I113" t="s">
-        <v>299</v>
+        <v>103</v>
+      </c>
+      <c r="J113" t="s">
+        <v>226</v>
+      </c>
+      <c r="K113" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D114" s="68" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E114" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F114" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="G114" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H114" t="s">
-        <v>93</v>
-      </c>
-      <c r="I114" t="s">
-        <v>103</v>
-      </c>
-      <c r="J114" t="s">
-        <v>226</v>
-      </c>
-      <c r="K114" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D115" s="68" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E115" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F115" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="G115" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H115" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="I115" t="s">
+        <v>103</v>
+      </c>
+      <c r="J115" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D116" s="68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E116" s="77" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G116" s="27" t="s">
         <v>84</v>
@@ -7193,21 +7202,21 @@
         <v>93</v>
       </c>
       <c r="I116" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J116" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D117" s="68" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="E117" s="77" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="F117" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="G117" s="27" t="s">
         <v>84</v>
@@ -7216,96 +7225,102 @@
         <v>93</v>
       </c>
       <c r="I117" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="J117" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="68" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E118" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F118" t="s">
-        <v>302</v>
+      <c r="F118" s="68" t="s">
+        <v>303</v>
       </c>
       <c r="G118" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H118" t="s">
         <v>93</v>
       </c>
       <c r="I118" t="s">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="J118" t="s">
-        <v>302</v>
+        <v>137</v>
+      </c>
+      <c r="K118" t="s">
+        <v>202</v>
+      </c>
+      <c r="L118" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="68" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="E119" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="F119" s="68" t="s">
-        <v>303</v>
+        <v>209</v>
+      </c>
+      <c r="F119" t="s">
+        <v>226</v>
       </c>
       <c r="G119" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H119" t="s">
         <v>93</v>
       </c>
       <c r="I119" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="J119" t="s">
-        <v>137</v>
-      </c>
-      <c r="K119" t="s">
-        <v>202</v>
-      </c>
-      <c r="L119" t="s">
-        <v>303</v>
+        <v>226</v>
       </c>
     </row>
     <row r="120" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D120" s="68" t="s">
-        <v>369</v>
+        <v>304</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="F120" t="s">
-        <v>226</v>
+        <v>208</v>
+      </c>
+      <c r="F120" s="68" t="s">
+        <v>304</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H120" t="s">
         <v>93</v>
       </c>
       <c r="I120" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="J120" t="s">
-        <v>226</v>
+        <v>137</v>
+      </c>
+      <c r="K120" t="s">
+        <v>305</v>
+      </c>
+      <c r="L120" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D121" s="68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E121" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F121" s="68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G121" s="27" t="s">
         <v>86</v>
@@ -7314,27 +7329,27 @@
         <v>93</v>
       </c>
       <c r="I121" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="J121" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="K121" t="s">
-        <v>305</v>
+        <v>194</v>
       </c>
       <c r="L121" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D122" s="68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E122" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F122" s="68" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>86</v>
@@ -7343,56 +7358,47 @@
         <v>93</v>
       </c>
       <c r="I122" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="J122" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="K122" t="s">
-        <v>194</v>
+        <v>309</v>
       </c>
       <c r="L122" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D123" s="68" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="E123" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F123" s="68" t="s">
-        <v>307</v>
+      <c r="F123" t="s">
+        <v>246</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H123" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="I123" t="s">
-        <v>308</v>
-      </c>
-      <c r="J123" t="s">
-        <v>137</v>
-      </c>
-      <c r="K123" t="s">
-        <v>309</v>
-      </c>
-      <c r="L123" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D124" s="68" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E124" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="G124" s="27" t="s">
         <v>83</v>
@@ -7401,38 +7407,47 @@
         <v>245</v>
       </c>
       <c r="I124" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D125" s="68" t="s">
-        <v>371</v>
+        <v>225</v>
       </c>
       <c r="E125" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F125" t="s">
-        <v>310</v>
+      <c r="F125" s="68" t="s">
+        <v>225</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H125" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="I125" t="s">
-        <v>310</v>
+        <v>103</v>
+      </c>
+      <c r="J125" t="s">
+        <v>226</v>
+      </c>
+      <c r="K125" t="s">
+        <v>227</v>
+      </c>
+      <c r="L125" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D126" s="68" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="E126" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F126" s="68" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
       <c r="G126" s="27" t="s">
         <v>86</v>
@@ -7441,27 +7456,27 @@
         <v>93</v>
       </c>
       <c r="I126" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="J126" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="K126" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="L126" t="s">
-        <v>225</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D127" s="68" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E127" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F127" s="68" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G127" s="27" t="s">
         <v>86</v>
@@ -7476,348 +7491,319 @@
         <v>137</v>
       </c>
       <c r="K127" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L127" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="4:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="68" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E128" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F128" s="68" t="s">
-        <v>313</v>
+      <c r="F128" t="s">
+        <v>318</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H128" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I128" t="s">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="J128" t="s">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="K128" t="s">
-        <v>314</v>
-      </c>
-      <c r="L128" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D129" s="68" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="E129" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F129" t="s">
-        <v>318</v>
+      <c r="F129" s="68" t="s">
+        <v>319</v>
       </c>
       <c r="G129" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H129" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I129" t="s">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="J129" t="s">
-        <v>317</v>
+        <v>226</v>
       </c>
       <c r="K129" t="s">
-        <v>318</v>
+        <v>320</v>
+      </c>
+      <c r="L129" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="130" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="68" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E130" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F130" s="68" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G130" s="27" t="s">
         <v>86</v>
       </c>
       <c r="H130" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="I130" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="J130" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="K130" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L130" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="131" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="68" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="E131" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="F131" s="68" t="s">
-        <v>321</v>
+        <v>209</v>
+      </c>
+      <c r="F131" t="s">
+        <v>310</v>
       </c>
       <c r="G131" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H131" t="s">
         <v>245</v>
       </c>
       <c r="I131" t="s">
-        <v>246</v>
-      </c>
-      <c r="J131" t="s">
-        <v>271</v>
-      </c>
-      <c r="K131" t="s">
-        <v>322</v>
-      </c>
-      <c r="L131" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="68" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E132" s="77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F132" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="G132" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H132" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="I132" t="s">
-        <v>310</v>
+        <v>136</v>
+      </c>
+      <c r="J132" t="s">
+        <v>137</v>
+      </c>
+      <c r="K132" t="s">
+        <v>201</v>
+      </c>
+      <c r="L132" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="68" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E133" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F133" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G133" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H133" t="s">
-        <v>93</v>
+        <v>325</v>
       </c>
       <c r="I133" t="s">
-        <v>136</v>
-      </c>
-      <c r="J133" t="s">
-        <v>137</v>
-      </c>
-      <c r="K133" t="s">
-        <v>201</v>
-      </c>
-      <c r="L133" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D134" s="68" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E134" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F134" t="s">
-        <v>326</v>
+      <c r="F134" s="68" t="s">
+        <v>327</v>
       </c>
       <c r="G134" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H134" t="s">
-        <v>325</v>
+        <v>93</v>
       </c>
       <c r="I134" t="s">
-        <v>326</v>
+        <v>102</v>
+      </c>
+      <c r="J134" t="s">
+        <v>105</v>
+      </c>
+      <c r="K134" t="s">
+        <v>194</v>
+      </c>
+      <c r="L134" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D135" s="68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E135" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F135" s="68" t="s">
-        <v>327</v>
+      <c r="F135" t="s">
+        <v>329</v>
       </c>
       <c r="G135" s="27" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H135" t="s">
-        <v>93</v>
-      </c>
-      <c r="I135" t="s">
-        <v>102</v>
-      </c>
-      <c r="J135" t="s">
-        <v>105</v>
-      </c>
-      <c r="K135" t="s">
-        <v>194</v>
-      </c>
-      <c r="L135" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="68" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E136" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="F136" t="s">
-        <v>329</v>
+      <c r="F136" s="68" t="s">
+        <v>330</v>
       </c>
       <c r="G136" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H136" t="s">
-        <v>329</v>
+        <v>91</v>
+      </c>
+      <c r="I136" t="s">
+        <v>98</v>
+      </c>
+      <c r="J136" t="s">
+        <v>99</v>
+      </c>
+      <c r="K136" t="s">
+        <v>158</v>
+      </c>
+      <c r="L136" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E137" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F137" s="68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G137" s="27" t="s">
         <v>86</v>
       </c>
       <c r="H137" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I137" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="J137" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="K137" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="L137" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="68" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E138" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F138" s="68" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G138" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H138" t="s">
         <v>93</v>
       </c>
       <c r="I138" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="J138" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="K138" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L138" t="s">
-        <v>331</v>
+        <v>333</v>
+      </c>
+      <c r="M138" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="68" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="E139" s="77" t="s">
         <v>208</v>
       </c>
       <c r="F139" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="G139" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="H139" t="s">
-        <v>93</v>
-      </c>
-      <c r="I139" t="s">
-        <v>102</v>
-      </c>
-      <c r="J139" t="s">
-        <v>105</v>
-      </c>
-      <c r="K139" t="s">
-        <v>334</v>
-      </c>
-      <c r="L139" t="s">
-        <v>333</v>
-      </c>
-      <c r="M139" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="140" spans="4:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="E140" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="F140" s="68" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="141" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E141" s="77"/>
-      <c r="G141" s="27"/>
+    <row r="140" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E140" s="77"/>
+      <c r="G140" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K19" r:id="rId1" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
+    <hyperlink ref="K18" r:id="rId1" tooltip="Cyclopidae" display="https://en.wikipedia.org/wiki/Cyclopidae"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
